--- a/temp.xlsx
+++ b/temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="703" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="유저정보(고객)" sheetId="4" r:id="rId1"/>
@@ -16,242 +16,239 @@
     <sheet name="마켓팅(홍보부)" sheetId="12" r:id="rId7"/>
     <sheet name="신제품개발(개발부)" sheetId="13" r:id="rId8"/>
     <sheet name="매출분석(본사)" sheetId="11" r:id="rId9"/>
-    <sheet name="지점정보" sheetId="16" r:id="rId10"/>
-    <sheet name="결제수단" sheetId="17" r:id="rId11"/>
-    <sheet name="메뉴정보" sheetId="18" r:id="rId12"/>
+    <sheet name="재고관리(구매부)" sheetId="19" r:id="rId10"/>
+    <sheet name="지점정보" sheetId="16" r:id="rId11"/>
+    <sheet name="결제수단" sheetId="17" r:id="rId12"/>
+    <sheet name="메뉴정보" sheetId="18" r:id="rId13"/>
+    <sheet name="종합" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="256">
   <si>
     <t>테이블명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유저정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ROWNUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index
-[PrimaryKey]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>열머리
 column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원가입, 로그인, 회원정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전두환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문재인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>박근혜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이명박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>노무현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>김대중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>김영삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>노태우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>박정희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이승만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>480724-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>631217-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>890827-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>880225-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>930225-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>980225-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>030225-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>080225-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>130225-2xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>170510-1xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시 다리끊었동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시 싹다잡았동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시 훠훠동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시 깜빵갔동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시 강뚫었동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시 ...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시 잔고없동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신안군 하의도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>010-1234-xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lsm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pjh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jdh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ntw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>kys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>kdj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>nmh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>본사, 점주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NoShow Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID
 [PrimaryKey]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,11 +296,11 @@
       </rPr>
       <t>성별 대비 구매상품)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>연령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -366,15 +363,15 @@
       </rPr>
       <t>관리자, 탈퇴 제외</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다른 테이블에서 연산되어 들어옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다른 테이블에서 가져온 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -417,142 +414,126 @@
       </rPr>
       <t>연령</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>남자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>여자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>필드
 field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구매상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구매지점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID
 [FOREIGN KEY]외래키 → 회원관리
 → 영수증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WHERE, 서브쿼리 조건검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구매회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>현재 테이블에서 고유생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영수증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자:EndUser / 발송정보확인 ,구매내역확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결제수단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>요구사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배송정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고객, 점주, 본사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input:고객, 본사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제조중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배송준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배송중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배송완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>교환신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>환불신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>환불완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>교환완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마일리지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 ID 마일리지(카카오)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>현금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -569,51 +550,706 @@
       </rPr>
       <t>・구・동</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>집앞에두시오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배달부 한조각 드셈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JMT로 주셈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>겉바속촉 ㅇㅋ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>콜라가 식기전에 배달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10분내로 와라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>흔들림 없는 편안함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영수증번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG업체
+(온라인결제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAN업체
+(신용카드결제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부결제
+관련업체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index
+[PrimaryKey]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index
+[PrimaryKey]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHN한국사이버결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부결제(카카오)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지(자사)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인카드결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달원수령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행이체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행이체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사, 점주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객, 본사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내부직원테이블을 만들어야 할듯 → 본사 부서별 권한설정 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">내부직원테이블을 만들어야 할듯 → 본사 부서별 권한설정 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제수단</t>
+  </si>
+  <si>
+    <t>결제수단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제수단에 따른 이벤트</t>
+  </si>
+  <si>
+    <t>결제수단에 따른 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순수익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점정보</t>
+  </si>
+  <si>
+    <t>지점정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업확장(직영점, 프렌차이즈 업주)</t>
+  </si>
+  <si>
+    <t>사업확장(직영점, 프렌차이즈 업주)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인결제 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문결제 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장크기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐쇄 : 코로나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴업 : 코로나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐쇄 : 화재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐쇄 : 업종변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐쇄 : 매출감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레임
+횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사, 점주, 점원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료개선 → PK4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리지날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마진감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매량 저조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절 상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점 상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동대구역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단품가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단품마진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료</t>
+  </si>
+  <si>
+    <t>메뉴별 수익 분석, 재고관리 사용, 제조 레시피 사용, 메뉴판, 상품개발</t>
+  </si>
+  <si>
+    <t>메뉴별 수익 분석, 재고관리 사용, 제조 레시피 사용, 메뉴판, 상품개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>토마토</t>
+  </si>
+  <si>
+    <t>불고기</t>
+  </si>
+  <si>
+    <t>케이준 새우살</t>
+  </si>
+  <si>
+    <t>파인애플</t>
+  </si>
+  <si>
+    <t>버섯</t>
+  </si>
+  <si>
+    <t>옥수수</t>
+  </si>
+  <si>
+    <t>올리브</t>
+  </si>
+  <si>
+    <t>베이컨</t>
+  </si>
+  <si>
+    <t>양파</t>
+  </si>
+  <si>
+    <t>페퍼로니</t>
+  </si>
+  <si>
+    <t>피망</t>
+  </si>
+  <si>
+    <t>햄</t>
+  </si>
+  <si>
+    <t>구입처</t>
+  </si>
+  <si>
+    <t>지역</t>
+  </si>
+  <si>
+    <t>중량</t>
+  </si>
+  <si>
+    <t>마진</t>
+  </si>
+  <si>
+    <t>제품코드</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>sauce</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>재료들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀가루</t>
+  </si>
+  <si>
+    <t>topping cheese</t>
+  </si>
+  <si>
+    <t>모짜렐라</t>
+  </si>
+  <si>
+    <t>체다</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>콜라</t>
+  </si>
+  <si>
+    <t>펩시</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>구입가능</t>
+  </si>
+  <si>
+    <t>재고관리(구매부)</t>
+  </si>
+  <si>
+    <t>재고관리(구매부)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처 확보, 거래량 조절, 지점배송</t>
+  </si>
+  <si>
+    <t>거래처 확보, 거래량 조절, 지점배송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+  </si>
+  <si>
+    <t>사용처</t>
+  </si>
+  <si>
+    <t>권한</t>
+  </si>
+  <si>
+    <t>유저정보(고객)</t>
+  </si>
+  <si>
+    <t>영수증(고객)</t>
+  </si>
+  <si>
+    <t>지점(점원)</t>
+  </si>
+  <si>
+    <t>재고관리(점주)</t>
+  </si>
+  <si>
+    <t>회원관리(본사)</t>
+  </si>
+  <si>
+    <t>지점관리(사업부)</t>
+  </si>
+  <si>
+    <t>마켓팅(홍보부)</t>
+  </si>
+  <si>
+    <t>신제품개발(개발부)</t>
+  </si>
+  <si>
+    <t>매출분석(본사)</t>
+  </si>
+  <si>
+    <t>메뉴정보</t>
+  </si>
+  <si>
+    <t>사용자:EndUser / 발송정보확인 ,구매내역확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>노쇼맨 블랙리스트, 점유율(지역별 지점분포대비 회원수), 마켓팅 타겟설정(회원연령조사), 마켓팅 아이템선정(지역별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연령대별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성별 대비 구매상품)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>고객</t>
+  </si>
+  <si>
+    <t>필요</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+  </si>
+  <si>
+    <t>발송정보확인</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>고객, 점주, 본사</t>
+  </si>
+  <si>
+    <t>발송정보수정</t>
+  </si>
+  <si>
+    <t>구매내역확인</t>
+  </si>
+  <si>
+    <t>상품제조</t>
+  </si>
+  <si>
+    <t>system
+점원</t>
+  </si>
+  <si>
+    <t>점주, 본사</t>
+  </si>
+  <si>
+    <t>상품배송</t>
+  </si>
+  <si>
+    <t>노쇼맨 블랙리스트</t>
+  </si>
+  <si>
+    <t>점유율(지역별 지점분포대비 회원수)</t>
+  </si>
+  <si>
+    <t>마켓팅 타겟설정(회원연령조사)</t>
+  </si>
+  <si>
+    <r>
+      <t>마켓팅 아이템선정(지역별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연령대별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성별 대비 구매상품)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,8 +1291,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +1345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,10 +1397,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -742,9 +1413,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -753,9 +1421,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -788,9 +1453,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -803,102 +1503,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>393294</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>167043</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2447924" y="4438650"/>
-          <a:ext cx="8327620" cy="4777143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>298044</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>205143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2447924" y="4229100"/>
-          <a:ext cx="8327620" cy="4777143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -946,7 +1550,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -994,7 +1598,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1329,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1349,28 +1953,28 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1385,656 +1989,2042 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="L12" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1234</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="17">
         <v>2</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1234</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="17">
         <v>3</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="D15" s="17">
+        <v>3</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1234</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="17">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1234</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1234</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="17">
         <v>6</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="D18" s="17">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1234</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="17">
+        <v>7</v>
+      </c>
+      <c r="D19" s="17">
+        <v>7</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1234</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="C20" s="17">
         <v>8</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="21" t="s">
+      <c r="D20" s="17">
+        <v>8</v>
+      </c>
+      <c r="E20" s="17">
+        <v>44</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1234</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="K20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="17">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17">
+        <v>9</v>
+      </c>
+      <c r="E21" s="17">
+        <v>44</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="17">
         <v>1234</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="H21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="19">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="K21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="25"/>
+      <c r="C22" s="17">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17">
+        <v>10</v>
+      </c>
+      <c r="E22" s="17">
+        <v>99</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="17">
         <v>1234</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="19">
-        <v>3</v>
-      </c>
-      <c r="D13" s="19">
-        <v>3</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1234</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="19">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19">
-        <v>4</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="19">
-        <v>1234</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="19" t="s">
+      <c r="I22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="19">
-        <v>5</v>
-      </c>
-      <c r="D15" s="19">
-        <v>5</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1234</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="19">
-        <v>6</v>
-      </c>
-      <c r="D16" s="19">
-        <v>6</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1234</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="19">
-        <v>7</v>
-      </c>
-      <c r="D17" s="19">
-        <v>7</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1234</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="19">
-        <v>8</v>
-      </c>
-      <c r="D18" s="19">
-        <v>8</v>
-      </c>
-      <c r="E18" s="19">
-        <v>44</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1234</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="19">
-        <v>9</v>
-      </c>
-      <c r="D19" s="19">
-        <v>9</v>
-      </c>
-      <c r="E19" s="19">
-        <v>44</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1234</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="19">
-        <v>10</v>
-      </c>
-      <c r="D20" s="19">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19">
-        <v>99</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1234</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="20">
-        <v>31</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>82</v>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32">
+        <v>2</v>
+      </c>
+      <c r="D14" s="32">
+        <v>2</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32">
+        <v>3</v>
+      </c>
+      <c r="D15" s="32">
+        <v>3</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32">
+        <v>4</v>
+      </c>
+      <c r="D16" s="32">
+        <v>4</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32">
+        <v>5</v>
+      </c>
+      <c r="D17" s="32">
+        <v>5</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32">
+        <v>6</v>
+      </c>
+      <c r="D18" s="33">
+        <v>6</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32">
+        <v>7</v>
+      </c>
+      <c r="D19" s="33">
+        <v>7</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32">
+        <v>8</v>
+      </c>
+      <c r="D20" s="33">
+        <v>8</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>52</v>
+      <c r="D21" s="33">
+        <v>9</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32">
+        <v>10</v>
+      </c>
+      <c r="D22" s="33">
+        <v>10</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32">
+        <v>11</v>
+      </c>
+      <c r="D23" s="33">
+        <v>11</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32">
+        <v>2</v>
+      </c>
+      <c r="D14" s="32">
+        <v>2</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32">
+        <v>3</v>
+      </c>
+      <c r="D15" s="32">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32">
+        <v>4</v>
+      </c>
+      <c r="D16" s="32">
+        <v>4</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32">
+        <v>5</v>
+      </c>
+      <c r="D17" s="32">
+        <v>5</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32">
+        <v>6</v>
+      </c>
+      <c r="D18" s="33">
+        <v>6</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32">
+        <v>7</v>
+      </c>
+      <c r="D19" s="33">
+        <v>7</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32">
+        <v>8</v>
+      </c>
+      <c r="D20" s="33">
+        <v>8</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="33">
+        <v>9</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32">
+        <v>10</v>
+      </c>
+      <c r="D22" s="33">
+        <v>10</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32">
+        <v>11</v>
+      </c>
+      <c r="D23" s="33">
+        <v>11</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E25" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32">
+        <v>2</v>
+      </c>
+      <c r="D14" s="32">
+        <v>2</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32">
+        <v>3</v>
+      </c>
+      <c r="D15" s="32">
+        <v>3</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32">
+        <v>4</v>
+      </c>
+      <c r="D16" s="32">
+        <v>4</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32">
+        <v>5</v>
+      </c>
+      <c r="D17" s="32">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32">
+        <v>6</v>
+      </c>
+      <c r="D18" s="33">
+        <v>6</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32">
+        <v>7</v>
+      </c>
+      <c r="D19" s="33">
+        <v>7</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32">
+        <v>8</v>
+      </c>
+      <c r="D20" s="33">
+        <v>8</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32">
+        <v>9</v>
+      </c>
+      <c r="D21" s="33">
+        <v>9</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32">
+        <v>10</v>
+      </c>
+      <c r="D22" s="33">
+        <v>10</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32">
+        <v>11</v>
+      </c>
+      <c r="D23" s="33">
+        <v>11</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="34"/>
+      <c r="C4" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="34"/>
+      <c r="C7" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="34"/>
+      <c r="C10" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="34"/>
+      <c r="C12" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C17" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C18" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C20" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C21" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C22" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C23" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="3:5" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="C24" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2043,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2065,28 +4055,28 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2096,355 +4086,354 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="18">
+        <v>31</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="18">
+        <v>30</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="18">
+        <v>27</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="16">
+        <v>3</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="17">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="18">
+        <v>22</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="17">
         <v>5</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="D15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="18">
+        <v>17</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="16">
+        <v>5</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="17">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="18">
+        <v>12</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="17">
         <v>7</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="20">
-        <v>31</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="D17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="18">
+        <v>7</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="19">
-        <v>2</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="20">
-        <v>30</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="18">
-        <v>2</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19" t="s">
+      <c r="G17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="16">
+        <v>7</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="19">
-        <v>3</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="20">
-        <v>27</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="18">
-        <v>3</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="19" t="s">
+      <c r="P17" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="19">
-        <v>4</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="20">
-        <v>22</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="18">
-        <v>4</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14" s="19" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="19">
-        <v>5</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="20">
-        <v>17</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="18">
-        <v>5</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="19">
-        <v>6</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="20">
-        <v>12</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="18">
-        <v>6</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="19">
-        <v>7</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="20">
-        <v>7</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="18">
-        <v>7</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2460,28 +4449,28 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2493,16 +4482,16 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2519,28 +4508,28 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2552,16 +4541,16 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2571,7 +4560,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2591,28 +4580,28 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2622,208 +4611,208 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>65</v>
+      <c r="B11" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="10">
         <v>31</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="11">
         <v>2</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10">
         <v>30</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="10">
         <v>27</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="11">
         <v>2</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10">
         <v>22</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="16"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="10">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="11">
         <v>4</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="10">
         <v>12</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="11">
         <v>9</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5">
         <v>7</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="10">
         <v>7</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="F17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="11">
         <v>3</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B11:B17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2842,28 +4831,28 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2875,16 +4864,16 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2914,28 +4903,28 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2945,208 +4934,208 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>65</v>
+      <c r="B11" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="10">
         <v>31</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="11">
         <v>2</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10">
         <v>30</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="10">
         <v>27</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="11">
         <v>2</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10">
         <v>22</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="16"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="10">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="11">
         <v>4</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="10">
         <v>12</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="11">
         <v>9</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5">
         <v>7</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="10">
         <v>7</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="F17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="11">
         <v>3</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B11:B17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3165,28 +5154,28 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3198,16 +5187,16 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3237,28 +5226,28 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3268,208 +5257,208 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>65</v>
+      <c r="B11" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="10">
         <v>31</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="11">
         <v>2</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10">
         <v>30</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="10">
         <v>27</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="11">
         <v>2</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10">
         <v>22</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="16"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="10">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="11">
         <v>4</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="10">
         <v>12</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="11">
         <v>9</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5">
         <v>7</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="10">
         <v>7</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="F17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="11">
         <v>3</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B11:B17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1453,12 +1453,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1469,23 +1463,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2510,13 +2508,13 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>1</v>
       </c>
       <c r="E13" t="s">
@@ -2938,13 +2936,13 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>1</v>
       </c>
       <c r="P13" t="b">
@@ -2955,11 +2953,11 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30">
         <v>2</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>2</v>
       </c>
       <c r="P14" t="b">
@@ -2967,11 +2965,11 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30">
         <v>3</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="30">
         <v>3</v>
       </c>
       <c r="P15" t="b">
@@ -2982,11 +2980,11 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30">
         <v>4</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>4</v>
       </c>
       <c r="P16" t="b">
@@ -2997,11 +2995,11 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30">
         <v>5</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="30">
         <v>5</v>
       </c>
       <c r="P17" t="b">
@@ -3012,11 +3010,11 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30">
         <v>6</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="31">
         <v>6</v>
       </c>
       <c r="P18" t="b">
@@ -3024,11 +3022,11 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30">
         <v>7</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="31">
         <v>7</v>
       </c>
       <c r="P19" t="b">
@@ -3039,11 +3037,11 @@
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30">
         <v>8</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="31">
         <v>8</v>
       </c>
       <c r="P20" t="b">
@@ -3051,11 +3049,11 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30">
         <v>9</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="31">
         <v>9</v>
       </c>
       <c r="P21" t="b">
@@ -3066,11 +3064,11 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30">
         <v>10</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="31">
         <v>10</v>
       </c>
       <c r="P22" t="b">
@@ -3078,11 +3076,11 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30">
         <v>11</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <v>11</v>
       </c>
       <c r="P23" t="b">
@@ -3215,16 +3213,16 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>1</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="30" t="s">
         <v>121</v>
       </c>
       <c r="F13" t="s">
@@ -3235,14 +3233,14 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30">
         <v>2</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>2</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="30" t="s">
         <v>121</v>
       </c>
       <c r="F14" t="s">
@@ -3253,14 +3251,14 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30">
         <v>3</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="30">
         <v>3</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>124</v>
       </c>
       <c r="F15" t="s">
@@ -3274,14 +3272,14 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30">
         <v>4</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>4</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="31" t="s">
         <v>127</v>
       </c>
       <c r="F16" t="s">
@@ -3292,14 +3290,14 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30">
         <v>5</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="30">
         <v>5</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F17" t="s">
@@ -3310,20 +3308,20 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30">
         <v>6</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="31">
         <v>6</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="31" t="s">
         <v>116</v>
       </c>
       <c r="G18" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="27" t="s">
         <v>108</v>
       </c>
       <c r="K18" t="b">
@@ -3331,20 +3329,20 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30">
         <v>7</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="31">
         <v>7</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G19" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="27" t="s">
         <v>112</v>
       </c>
       <c r="K19" t="b">
@@ -3352,20 +3350,20 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30">
         <v>8</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="31">
         <v>8</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H20" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="27" t="s">
         <v>109</v>
       </c>
       <c r="K20" t="b">
@@ -3373,20 +3371,20 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30">
         <v>9</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="31">
         <v>9</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="31" t="s">
         <v>113</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="27">
         <v>0.02</v>
       </c>
       <c r="K21" t="b">
@@ -3394,20 +3392,20 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30">
         <v>10</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="31">
         <v>10</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="31" t="s">
         <v>113</v>
       </c>
       <c r="F22" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="27">
         <v>0.03</v>
       </c>
       <c r="K22" t="b">
@@ -3415,20 +3413,20 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30">
         <v>11</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <v>11</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="31" t="s">
         <v>113</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="27">
         <v>0.01</v>
       </c>
       <c r="K23" t="b">
@@ -3436,13 +3434,13 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E25" s="32"/>
+      <c r="E25" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3576,13 +3574,13 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>1</v>
       </c>
       <c r="N13" t="b">
@@ -3593,11 +3591,11 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30">
         <v>2</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>2</v>
       </c>
       <c r="N14" t="b">
@@ -3605,11 +3603,11 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30">
         <v>3</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="30">
         <v>3</v>
       </c>
       <c r="N15" t="b">
@@ -3620,11 +3618,11 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30">
         <v>4</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>4</v>
       </c>
       <c r="N16" t="b">
@@ -3635,11 +3633,11 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30">
         <v>5</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="30">
         <v>5</v>
       </c>
       <c r="M17" t="s">
@@ -3653,11 +3651,11 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30">
         <v>6</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="31">
         <v>6</v>
       </c>
       <c r="N18" t="b">
@@ -3665,11 +3663,11 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30">
         <v>7</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="31">
         <v>7</v>
       </c>
       <c r="N19" t="b">
@@ -3680,11 +3678,11 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30">
         <v>8</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="31">
         <v>8</v>
       </c>
       <c r="N20" t="b">
@@ -3692,11 +3690,11 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30">
         <v>9</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="31">
         <v>9</v>
       </c>
       <c r="N21" t="b">
@@ -3704,11 +3702,11 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30">
         <v>10</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="31">
         <v>10</v>
       </c>
       <c r="N22" t="b">
@@ -3719,11 +3717,11 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30">
         <v>11</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <v>11</v>
       </c>
       <c r="N23" t="b">
@@ -3743,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3758,270 +3756,294 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="34" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="34"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="35" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="34"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="35" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="34"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="35" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C17" s="37" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="39"/>
+      <c r="C17" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C18" s="37" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="39"/>
+      <c r="C18" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C19" s="37" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="39"/>
+      <c r="C19" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C20" s="37" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="39"/>
+      <c r="C20" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C21" s="37" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="39"/>
+      <c r="C21" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C22" s="37" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="39"/>
+      <c r="C22" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="3:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C23" s="37" t="s">
+      <c r="E22" s="37"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="39"/>
+      <c r="C23" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="3:5" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="C24" s="38" t="s">
+      <c r="E23" s="37"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="2:7" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4145,10 +4167,10 @@
       <c r="N10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="28" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4186,10 +4208,10 @@
       <c r="N11" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="29" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4223,10 +4245,10 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="29" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4260,10 +4282,10 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="29" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4297,10 +4319,10 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="29" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4334,10 +4356,10 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4369,10 +4391,10 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="P16" s="29" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4404,10 +4426,10 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4660,7 +4682,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="5">
@@ -4683,7 +4705,7 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="5">
         <v>2</v>
       </c>
@@ -4704,7 +4726,7 @@
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="5">
         <v>3</v>
       </c>
@@ -4725,7 +4747,7 @@
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="5">
         <v>4</v>
       </c>
@@ -4746,7 +4768,7 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="5">
         <v>5</v>
       </c>
@@ -4767,7 +4789,7 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="5">
         <v>6</v>
       </c>
@@ -4788,7 +4810,7 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="5">
         <v>7</v>
       </c>
@@ -4983,7 +5005,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="5">
@@ -5006,7 +5028,7 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="5">
         <v>2</v>
       </c>
@@ -5027,7 +5049,7 @@
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="5">
         <v>3</v>
       </c>
@@ -5048,7 +5070,7 @@
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="5">
         <v>4</v>
       </c>
@@ -5069,7 +5091,7 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="5">
         <v>5</v>
       </c>
@@ -5090,7 +5112,7 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="5">
         <v>6</v>
       </c>
@@ -5111,7 +5133,7 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="5">
         <v>7</v>
       </c>
@@ -5306,7 +5328,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="5">
@@ -5329,7 +5351,7 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="5">
         <v>2</v>
       </c>
@@ -5350,7 +5372,7 @@
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="5">
         <v>3</v>
       </c>
@@ -5371,7 +5393,7 @@
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="5">
         <v>4</v>
       </c>
@@ -5392,7 +5414,7 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="5">
         <v>5</v>
       </c>
@@ -5413,7 +5435,7 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="5">
         <v>6</v>
       </c>
@@ -5434,7 +5456,7 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="5">
         <v>7</v>
       </c>
